--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5799" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1F80BC7-C607-45C1-A0D3-218BF9D9C540}"/>
+  <xr:revisionPtr revIDLastSave="5882" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B7EB869-4351-4EB7-9036-BEF3A6B8992B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="2020" sheetId="27" r:id="rId17"/>
     <sheet name="2021" sheetId="33" r:id="rId18"/>
     <sheet name="2022" sheetId="28" r:id="rId19"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId20"/>
-    <sheet name="Wins-Losses" sheetId="34" r:id="rId21"/>
-    <sheet name="Winning Percentile Range" sheetId="35" r:id="rId22"/>
+    <sheet name="2023" sheetId="36" r:id="rId20"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId21"/>
+    <sheet name="Wins-Losses" sheetId="37" r:id="rId22"/>
+    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5749" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5807" uniqueCount="1103">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3327,6 +3328,42 @@
   </si>
   <si>
     <t>7-6(5) 7-6(6)</t>
+  </si>
+  <si>
+    <t>ADELAIDE INTERNATIONAL 1</t>
+  </si>
+  <si>
+    <t>Constant Lestienne (FRANCE)</t>
+  </si>
+  <si>
+    <t>Sebastian Korda (USA)</t>
+  </si>
+  <si>
+    <t>7-6(3) 7-6(5)</t>
+  </si>
+  <si>
+    <t>6-7(8) 7-6(3) 6-4</t>
+  </si>
+  <si>
+    <t>6-1 6-7(5) 6-2 6-0</t>
+  </si>
+  <si>
+    <t>7-5 6-1 6-2</t>
+  </si>
+  <si>
+    <t>6-3 7-6(4) 7-6(5)</t>
+  </si>
+  <si>
+    <t>Enzo Couacaud (FRANCE)</t>
+  </si>
+  <si>
+    <t>Alex De Minaur (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Tommy Paul (USA)</t>
+  </si>
+  <si>
+    <t>7-6(7) 6-3 6-4</t>
   </si>
 </sst>
 </file>
@@ -3433,7 +3470,27 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3762,13 +3819,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Novak Djokovic (SERBIA)</a:t>
+              <a:t>Novak Djokovic (SERBIA): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t>: Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3834,10 +3886,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$20</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2004</c:v>
                 </c:pt>
@@ -3895,15 +3947,18 @@
                 <c:pt idx="18">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$20</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -3961,12 +4016,15 @@
                 <c:pt idx="18">
                   <c:v>41</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D74-4F95-A0C1-CDAFF36A944F}"/>
+              <c16:uniqueId val="{00000000-A003-4B4F-B2C7-BC3D76E032CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3996,10 +4054,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$20</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2004</c:v>
                 </c:pt>
@@ -4057,15 +4115,18 @@
                 <c:pt idx="18">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$20</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -4123,12 +4184,15 @@
                 <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D74-4F95-A0C1-CDAFF36A944F}"/>
+              <c16:uniqueId val="{00000001-A003-4B4F-B2C7-BC3D76E032CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4142,11 +4206,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1583806512"/>
-        <c:axId val="1583792784"/>
+        <c:axId val="190894655"/>
+        <c:axId val="190890079"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1583806512"/>
+        <c:axId val="190894655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1583792784"/>
+        <c:crossAx val="190890079"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4252,7 +4316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1583792784"/>
+        <c:axId val="190890079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4358,7 +4422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1583806512"/>
+        <c:crossAx val="190894655"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4468,21 +4532,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Novak</a:t>
+              <a:t>Novak Djokovic (SERBIA): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Djokovic (SERBIA)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>: Winning</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4575,10 +4626,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$20</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2004</c:v>
                 </c:pt>
@@ -4636,15 +4687,18 @@
                 <c:pt idx="18">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$20</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.55555555555555558</c:v>
                 </c:pt>
@@ -4702,13 +4756,16 @@
                 <c:pt idx="18">
                   <c:v>0.85365853658536583</c:v>
                 </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBDB-46A5-AB80-E6A02F5F5F06}"/>
+              <c16:uniqueId val="{00000000-0992-41B2-A302-9886486F14E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4722,71 +4779,16 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2060189120"/>
-        <c:axId val="2060177056"/>
+        <c:axId val="1906390303"/>
+        <c:axId val="1906377823"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2060189120"/>
+        <c:axId val="1906390303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>YEAR</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4824,7 +4826,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2060177056"/>
+        <c:crossAx val="1906377823"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4832,7 +4834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2060177056"/>
+        <c:axId val="1906377823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4852,61 +4854,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>PERCENTAGE</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4938,7 +4885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2060189120"/>
+        <c:crossAx val="1906390303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6100,7 +6047,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{207F744F-61CD-4575-A5D1-332BE404724A}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7BFEE915-1E83-4B37-9DF5-B3031667E8A4}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6112,7 +6059,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7394548D-F12D-4EC5-A523-6F2377EF6E3B}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C36E98B0-2E23-43C4-AC91-900BBC829406}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6126,13 +6073,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB59302D-F9D8-292E-7D59-1820824F1C6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DF9255-0316-9ACC-2DB5-29D749778654}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6159,13 +6106,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8657422" cy="6279614"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16AF790-C235-C398-001B-86A588BA08FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6654AF93-8D19-F2F8-CFF6-1DE36998E50C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6186,6 +6133,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6477,7 +6428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16437,31 +16388,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16475,8 +16426,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E53" activeCellId="5" sqref="E4 E6 E11 E16 E28 E53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17250,34 +17201,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="9" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18055,14 +18006,247 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56D899B-0DC0-4608-A419-4F6E3407C71B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>830</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>945</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>968</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>678</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>929</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C6">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C14">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A21 F1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18113,7 +18297,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F20" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F21" si="0">(D2-E2)/D2</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -18501,57 +18685,78 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="5">
-        <f>SUM(B2:B20)</f>
-        <v>307</v>
-      </c>
-      <c r="C21" s="5">
-        <f>SUM(C2:C20)</f>
-        <v>91</v>
-      </c>
-      <c r="D21" s="5">
-        <f>SUM(D2:D20)</f>
-        <v>1043</v>
-      </c>
-      <c r="E21" s="5">
-        <f>SUM(E2:E20)</f>
-        <v>204</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" ref="F21:F22" si="1">(D21-E21)/D21</f>
-        <v>0.80441035474592526</v>
+      <c r="A21">
+        <v>2023</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="5">
+        <f>SUM(B2:B21)</f>
+        <v>309</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUM(C2:C21)</f>
+        <v>93</v>
+      </c>
+      <c r="D22" s="5">
+        <f>SUM(D2:D21)</f>
+        <v>1055</v>
+      </c>
+      <c r="E22" s="5">
+        <f>SUM(E2:E21)</f>
+        <v>204</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
+        <v>0.8066350710900474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="5">
-        <f>AVERAGE(B2:B20)</f>
-        <v>16.157894736842106</v>
-      </c>
-      <c r="C22" s="5">
-        <f>AVERAGE(C2:C20)</f>
-        <v>4.7894736842105265</v>
-      </c>
-      <c r="D22" s="5">
-        <f>AVERAGE(D2:D20)</f>
-        <v>54.89473684210526</v>
-      </c>
-      <c r="E22" s="5">
-        <f>AVERAGE(E2:E20)</f>
-        <v>10.736842105263158</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="B23" s="5">
+        <f>AVERAGE(B2:B21)</f>
+        <v>15.45</v>
+      </c>
+      <c r="C23" s="5">
+        <f>AVERAGE(C2:C21)</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D23" s="5">
+        <f>AVERAGE(D2:D21)</f>
+        <v>52.75</v>
+      </c>
+      <c r="E23" s="5">
+        <f>AVERAGE(E2:E21)</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>0.80441035474592526</v>
+        <v>0.80663507109004728</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F20">
+  <conditionalFormatting sqref="F2:F21">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -20787,31 +20992,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="25" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5882" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B7EB869-4351-4EB7-9036-BEF3A6B8992B}"/>
+  <xr:revisionPtr revIDLastSave="5901" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6161407B-65E3-4224-B077-CE18C4E9DBFF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5807" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5825" uniqueCount="1105">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3364,6 +3364,12 @@
   </si>
   <si>
     <t>7-6(7) 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Tomáš Macháč (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>6-3 3-6 7-6(1)</t>
   </si>
 </sst>
 </file>
@@ -3470,7 +3476,27 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4017,7 +4043,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4185,7 +4211,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4757,7 +4783,7 @@
                   <c:v>0.85365853658536583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>0.93333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6106,7 +6132,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657422" cy="6279614"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -15452,8 +15478,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E69" activeCellId="12" sqref="E2:E8 E10 E13:E14 E17:E20 E23:E26 E28:E34 E36:E42 E44:E47 E50:E55 E58 E60:E62 E64:E66 E69:E72"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16388,31 +16414,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16427,7 +16453,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C36"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17201,34 +17227,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="11" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="10" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="5" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18010,18 +18036,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" activeCellId="2" sqref="E2:E6 E8:E14 E16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -18226,11 +18252,79 @@
         <v>1098</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>957</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>880</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C14">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C17 D16 F16:F19">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C14">
+  <conditionalFormatting sqref="C18:C19">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18245,8 +18339,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A21 F1:F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18689,20 +18783,20 @@
         <v>2023</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -18711,7 +18805,7 @@
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C22" s="5">
         <f>SUM(C2:C21)</f>
@@ -18719,15 +18813,15 @@
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.8066350710900474</v>
+        <v>0.80623818525519853</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -18736,7 +18830,7 @@
       </c>
       <c r="B23" s="5">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.45</v>
+        <v>15.5</v>
       </c>
       <c r="C23" s="5">
         <f>AVERAGE(C2:C21)</f>
@@ -18744,15 +18838,15 @@
       </c>
       <c r="D23" s="5">
         <f>AVERAGE(D2:D21)</f>
-        <v>52.75</v>
+        <v>52.9</v>
       </c>
       <c r="E23" s="5">
         <f>AVERAGE(E2:E21)</f>
-        <v>10.199999999999999</v>
+        <v>10.25</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>0.80663507109004728</v>
+        <v>0.80623818525519853</v>
       </c>
     </row>
   </sheetData>
@@ -20992,31 +21086,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5901" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6161407B-65E3-4224-B077-CE18C4E9DBFF}"/>
+  <xr:revisionPtr revIDLastSave="5912" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00619124-B6ED-4919-9C81-ED0C3DED0C77}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5825" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5835" uniqueCount="1106">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3370,6 +3370,9 @@
   </si>
   <si>
     <t>6-3 3-6 7-6(1)</t>
+  </si>
+  <si>
+    <t>Ivan Gakhov (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -3476,7 +3479,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4043,7 +4056,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4211,7 +4224,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4783,7 +4796,7 @@
                   <c:v>0.85365853658536583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.93333333333333335</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15478,8 +15491,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61:D62"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16414,31 +16427,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="21" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16452,8 +16465,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16539,7 +16552,7 @@
         <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -17227,34 +17240,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="13" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18036,10 +18049,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" activeCellId="2" sqref="E2:E6 E8:E14 E16:E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" activeCellId="3" sqref="E2:E6 E8:E14 E16:E18 E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18272,7 +18285,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>3</v>
       </c>
@@ -18286,7 +18299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -18300,7 +18313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>0</v>
       </c>
@@ -18314,17 +18327,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C14">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C14">
+  <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C17 D16 F16:F19">
+  <conditionalFormatting sqref="C18:C19">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C19">
+  <conditionalFormatting sqref="C21:C22 D21">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18339,7 +18389,7 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -18783,20 +18833,20 @@
         <v>2023</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -18805,7 +18855,7 @@
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C22" s="5">
         <f>SUM(C2:C21)</f>
@@ -18813,15 +18863,15 @@
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.80623818525519853</v>
+        <v>0.80547686496694992</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -18830,7 +18880,7 @@
       </c>
       <c r="B23" s="5">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.5</v>
+        <v>15.55</v>
       </c>
       <c r="C23" s="5">
         <f>AVERAGE(C2:C21)</f>
@@ -18838,15 +18888,15 @@
       </c>
       <c r="D23" s="5">
         <f>AVERAGE(D2:D21)</f>
-        <v>52.9</v>
+        <v>52.95</v>
       </c>
       <c r="E23" s="5">
         <f>AVERAGE(E2:E21)</f>
-        <v>10.25</v>
+        <v>10.3</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>0.80623818525519853</v>
+        <v>0.80547686496695003</v>
       </c>
     </row>
   </sheetData>
@@ -21086,31 +21136,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="30" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5912" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00619124-B6ED-4919-9C81-ED0C3DED0C77}"/>
+  <xr:revisionPtr revIDLastSave="5925" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5761C10-77BA-43BD-B193-A3B68F4CA1A9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="4632" yWindow="3360" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5835" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5845" uniqueCount="1109">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3373,6 +3373,15 @@
   </si>
   <si>
     <t>Ivan Gakhov (RUSSIA)</t>
+  </si>
+  <si>
+    <t>BANJA LUKA OPEN</t>
+  </si>
+  <si>
+    <t>Luca Van Assche (FRANCE)</t>
+  </si>
+  <si>
+    <t>6-7(4) 6-3 6-2</t>
   </si>
 </sst>
 </file>
@@ -3479,7 +3488,27 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4056,7 +4085,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4224,7 +4253,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4796,7 +4825,7 @@
                   <c:v>0.85365853658536583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.875</c:v>
+                  <c:v>0.82352941176470584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16427,31 +16456,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="20" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -17240,34 +17269,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18049,10 +18078,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" activeCellId="3" sqref="E2:E6 E8:E14 E16:E18 E21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18361,20 +18390,60 @@
         <v>52</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>777</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>495</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C14">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C14">
+  <conditionalFormatting sqref="C18:C19">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22">
+  <conditionalFormatting sqref="C21:C22 D21">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C19">
+  <conditionalFormatting sqref="C24">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22 D21">
+  <conditionalFormatting sqref="C25">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18833,20 +18902,20 @@
         <v>2023</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -18855,7 +18924,7 @@
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C22" s="5">
         <f>SUM(C2:C21)</f>
@@ -18863,15 +18932,15 @@
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.80547686496694992</v>
+        <v>0.80471698113207546</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -18880,7 +18949,7 @@
       </c>
       <c r="B23" s="5">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.55</v>
+        <v>15.6</v>
       </c>
       <c r="C23" s="5">
         <f>AVERAGE(C2:C21)</f>
@@ -18888,15 +18957,15 @@
       </c>
       <c r="D23" s="5">
         <f>AVERAGE(D2:D21)</f>
-        <v>52.95</v>
+        <v>53</v>
       </c>
       <c r="E23" s="5">
         <f>AVERAGE(E2:E21)</f>
-        <v>10.3</v>
+        <v>10.35</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>0.80547686496695003</v>
+        <v>0.80471698113207546</v>
       </c>
     </row>
   </sheetData>
@@ -21136,31 +21205,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="30" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="5925" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5761C10-77BA-43BD-B193-A3B68F4CA1A9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4632" yWindow="3360" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5946" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0797D472-50BB-4CD2-AA3B-254F232402E1}"/>
+  <xr:revisionPtr revIDLastSave="5970" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9F0AFE7-D4BB-467C-8DF2-B7353F8FB061}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5845" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5863" uniqueCount="1110">
   <si>
     <t>Semifinal</t>
   </si>
@@ -2763,9 +2763,6 @@
     <t>Adrian Mannarino (FRANCE)</t>
   </si>
   <si>
-    <t>6-1, 6-2, 6-4</t>
-  </si>
-  <si>
     <t>4-6 6-3 6-1 6-3</t>
   </si>
   <si>
@@ -2958,9 +2955,6 @@
     <t>7-6(2) 6-1</t>
   </si>
   <si>
-    <t>Roberto Carballes Baena (SPAIN)</t>
-  </si>
-  <si>
     <t>6-4 7-6(3) 6-1</t>
   </si>
   <si>
@@ -3219,9 +3213,6 @@
     <t>6-1 6-7(5) 6-2 6-1</t>
   </si>
   <si>
-    <t>4-6, 6-3, 6-3</t>
-  </si>
-  <si>
     <t>3-6 6-0 7-6(5)</t>
   </si>
   <si>
@@ -3309,9 +3300,6 @@
     <t>Botic Van De Zandschulp (NETHERLANDS)</t>
   </si>
   <si>
-    <t>7-6 (7-1), 6-4</t>
-  </si>
-  <si>
     <t>3-6 6-3 7-5</t>
   </si>
   <si>
@@ -3382,6 +3370,21 @@
   </si>
   <si>
     <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>Roberto Carballés Baena (SPAIN)</t>
+  </si>
+  <si>
+    <t>7-6(1) 6-4</t>
+  </si>
+  <si>
+    <t>6-2 4-6 6-2</t>
+  </si>
+  <si>
+    <t>Tomás Martín Etcheverry (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>6-3 4-6 6-1</t>
   </si>
 </sst>
 </file>
@@ -3488,7 +3491,27 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4085,7 +4108,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4253,7 +4276,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4825,7 +4848,7 @@
                   <c:v>0.85365853658536583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6130,7 +6153,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C36E98B0-2E23-43C4-AC91-900BBC829406}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6509,8 +6532,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7445,7 +7468,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
@@ -9455,7 +9478,7 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10846,8 +10869,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11338,7 +11361,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -12363,7 +12386,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -12726,8 +12749,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12777,7 +12800,7 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>902</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -12791,7 +12814,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -12819,7 +12842,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -12833,13 +12856,13 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -12893,7 +12916,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -12907,7 +12930,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -12927,12 +12950,12 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -12989,7 +13012,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -13023,7 +13046,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -13065,13 +13088,13 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -13085,7 +13108,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -13107,18 +13130,18 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -13127,7 +13150,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -13189,7 +13212,7 @@
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -13203,7 +13226,7 @@
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -13245,13 +13268,13 @@
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -13265,7 +13288,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -13279,7 +13302,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -13293,7 +13316,7 @@
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -13307,7 +13330,7 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -13335,13 +13358,13 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -13355,7 +13378,7 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -13445,13 +13468,13 @@
         <v>24</v>
       </c>
       <c r="D57" t="s">
+        <v>929</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
         <v>930</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -13459,13 +13482,13 @@
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -13493,7 +13516,7 @@
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -13501,7 +13524,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>20</v>
@@ -13535,7 +13558,7 @@
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -13563,7 +13586,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>20</v>
@@ -13605,7 +13628,7 @@
         <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>20</v>
@@ -13631,7 +13654,7 @@
         <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -13639,13 +13662,13 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -13673,7 +13696,7 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -13681,7 +13704,7 @@
         <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>19</v>
@@ -13735,7 +13758,7 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -13779,8 +13802,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13824,7 +13847,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -13838,7 +13861,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -13858,7 +13881,7 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -13872,7 +13895,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -13900,13 +13923,13 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -13920,7 +13943,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -13934,7 +13957,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -13942,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -14024,7 +14047,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -14072,7 +14095,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -14097,7 +14120,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -14106,7 +14129,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
@@ -14126,7 +14149,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -14154,7 +14177,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -14162,7 +14185,7 @@
         <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -14182,7 +14205,7 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
@@ -14216,7 +14239,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -14230,7 +14253,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -14244,7 +14267,7 @@
         <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -14258,13 +14281,13 @@
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -14272,7 +14295,7 @@
         <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -14286,7 +14309,7 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -14320,7 +14343,7 @@
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -14334,7 +14357,7 @@
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -14362,7 +14385,7 @@
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -14376,13 +14399,13 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -14390,7 +14413,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -14410,7 +14433,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -14424,7 +14447,7 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -14438,7 +14461,7 @@
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -14480,13 +14503,13 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -14514,7 +14537,7 @@
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>967</v>
+        <v>1105</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
@@ -14528,13 +14551,13 @@
         <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -14542,7 +14565,7 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>20</v>
@@ -14562,12 +14585,12 @@
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
@@ -14576,7 +14599,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -14590,7 +14613,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
@@ -14604,7 +14627,7 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -14632,7 +14655,7 @@
         <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>20</v>
@@ -14652,7 +14675,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
@@ -14680,13 +14703,13 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -14700,13 +14723,13 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -14720,7 +14743,7 @@
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -14728,7 +14751,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>20</v>
@@ -14756,7 +14779,7 @@
         <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>20</v>
@@ -14776,7 +14799,7 @@
         <v>373</v>
       </c>
       <c r="D78" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>20</v>
@@ -14796,7 +14819,7 @@
         <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -14821,7 +14844,7 @@
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>20</v>
@@ -14843,7 +14866,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>20</v>
@@ -14866,7 +14889,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14916,7 +14939,7 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -14924,7 +14947,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -14938,7 +14961,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -14972,7 +14995,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -14986,7 +15009,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -15000,7 +15023,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -15042,7 +15065,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -15062,7 +15085,7 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -15070,7 +15093,7 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -15096,7 +15119,7 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -15104,7 +15127,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -15138,7 +15161,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -15152,7 +15175,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -15166,7 +15189,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -15186,7 +15209,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -15214,7 +15237,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -15228,7 +15251,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -15248,7 +15271,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -15256,13 +15279,13 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -15270,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -15304,13 +15327,13 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -15332,13 +15355,13 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -15346,13 +15369,13 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -15366,7 +15389,7 @@
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -15374,13 +15397,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -15394,7 +15417,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -15414,7 +15437,7 @@
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -15422,13 +15445,13 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -15436,7 +15459,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>19</v>
@@ -15504,7 +15527,7 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -15520,8 +15543,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15579,13 +15602,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -15593,13 +15616,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -15613,7 +15636,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -15627,7 +15650,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -15635,7 +15658,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -15655,7 +15678,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -15669,7 +15692,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -15683,7 +15706,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
@@ -15703,7 +15726,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -15717,7 +15740,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -15731,13 +15754,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -15751,13 +15774,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -15765,7 +15788,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -15779,13 +15802,13 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -15793,7 +15816,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -15813,12 +15836,12 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -15827,7 +15850,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -15841,7 +15864,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
@@ -15855,13 +15878,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -15869,7 +15892,7 @@
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -15889,13 +15912,13 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -15903,7 +15926,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -15931,13 +15954,13 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -15945,13 +15968,13 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -15965,7 +15988,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -15973,13 +15996,13 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -15993,13 +16016,13 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
         <v>1037</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -16021,13 +16044,13 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -16035,13 +16058,13 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -16049,7 +16072,7 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -16063,13 +16086,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -16077,13 +16100,13 @@
         <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -16097,7 +16120,7 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -16125,7 +16148,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -16159,7 +16182,7 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -16173,13 +16196,13 @@
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -16187,13 +16210,13 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -16207,7 +16230,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -16215,13 +16238,13 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -16229,13 +16252,13 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -16249,7 +16272,7 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -16277,7 +16300,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
@@ -16305,7 +16328,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>20</v>
@@ -16319,13 +16342,13 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -16339,7 +16362,7 @@
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>1054</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -16353,7 +16376,7 @@
         <v>373</v>
       </c>
       <c r="D64" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -16367,7 +16390,7 @@
         <v>373</v>
       </c>
       <c r="D65" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>20</v>
@@ -16381,7 +16404,7 @@
         <v>373</v>
       </c>
       <c r="D66" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>20</v>
@@ -16412,7 +16435,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>20</v>
@@ -16434,7 +16457,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -16456,31 +16479,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="22" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16494,8 +16517,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16539,7 +16562,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -16553,7 +16576,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -16587,13 +16610,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -16607,13 +16630,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -16621,7 +16644,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -16635,7 +16658,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -16649,18 +16672,18 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -16697,7 +16720,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -16711,13 +16734,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -16731,7 +16754,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -16759,13 +16782,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -16773,7 +16796,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -16787,7 +16810,7 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>20</v>
@@ -16807,13 +16830,13 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -16821,13 +16844,13 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -16869,7 +16892,7 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -16883,13 +16906,13 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -16911,7 +16934,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -16925,13 +16948,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -16939,13 +16962,13 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -16953,13 +16976,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -16973,12 +16996,12 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -16987,7 +17010,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -17015,13 +17038,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -17040,7 +17063,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -17049,7 +17072,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -17063,7 +17086,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -17077,7 +17100,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
@@ -17097,7 +17120,7 @@
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -17105,7 +17128,7 @@
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>20</v>
@@ -17125,13 +17148,13 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>1084</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -17139,7 +17162,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
@@ -17153,7 +17176,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -17167,13 +17190,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -17181,13 +17204,13 @@
         <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -17201,7 +17224,7 @@
         <v>373</v>
       </c>
       <c r="D55" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -17215,7 +17238,7 @@
         <v>373</v>
       </c>
       <c r="D56" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
@@ -17235,7 +17258,7 @@
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -17243,13 +17266,13 @@
         <v>583</v>
       </c>
       <c r="D58" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -17257,7 +17280,7 @@
         <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>20</v>
@@ -17269,34 +17292,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18078,10 +18101,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" activeCellId="5" sqref="E2:E6 E8:E14 E16:E18 E21 E24 E27:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18089,7 +18112,7 @@
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -18116,7 +18139,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -18125,7 +18148,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -18145,7 +18168,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -18153,7 +18176,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -18181,13 +18204,13 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -18201,7 +18224,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>967</v>
+        <v>1105</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -18215,13 +18238,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -18235,7 +18258,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -18243,7 +18266,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -18257,7 +18280,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -18271,13 +18294,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -18285,13 +18308,13 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -18305,13 +18328,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -18319,7 +18342,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -18333,7 +18356,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -18367,7 +18390,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -18381,7 +18404,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>19</v>
@@ -18392,7 +18415,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -18401,13 +18424,13 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -18424,26 +18447,94 @@
         <v>494</v>
       </c>
     </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>677</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1107</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 D21">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:C30">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F29">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18459,7 +18550,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18902,20 +18993,20 @@
         <v>2023</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>0.82352941176470584</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -18924,7 +19015,7 @@
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C22" s="5">
         <f>SUM(C2:C21)</f>
@@ -18932,15 +19023,15 @@
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.80471698113207546</v>
+        <v>0.80432737535277521</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -18949,7 +19040,7 @@
       </c>
       <c r="B23" s="5">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.6</v>
+        <v>15.65</v>
       </c>
       <c r="C23" s="5">
         <f>AVERAGE(C2:C21)</f>
@@ -18957,15 +19048,15 @@
       </c>
       <c r="D23" s="5">
         <f>AVERAGE(D2:D21)</f>
-        <v>53</v>
+        <v>53.15</v>
       </c>
       <c r="E23" s="5">
         <f>AVERAGE(E2:E21)</f>
-        <v>10.35</v>
+        <v>10.4</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>0.80471698113207546</v>
+        <v>0.80432737535277521</v>
       </c>
     </row>
   </sheetData>
@@ -21075,7 +21166,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -21205,31 +21296,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -22283,7 +22374,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
@@ -23118,7 +23209,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
@@ -25672,7 +25763,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -26904,7 +26995,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5970" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9F0AFE7-D4BB-467C-8DF2-B7353F8FB061}"/>
+  <xr:revisionPtr revIDLastSave="5997" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDEC1384-181E-40CD-A6B0-CEE8C961B56C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5863" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="1117">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3159,9 +3159,6 @@
     <t>6-2 6-4 6-2</t>
   </si>
   <si>
-    <t>Marton Fucsovics</t>
-  </si>
-  <si>
     <t>Jack Draper (GREAT BRITAIN)</t>
   </si>
   <si>
@@ -3385,6 +3382,30 @@
   </si>
   <si>
     <t>6-3 4-6 6-1</t>
+  </si>
+  <si>
+    <t>Aleksandar Kovacevic (USA)</t>
+  </si>
+  <si>
+    <t>6-3 6-2 7-6(1)</t>
+  </si>
+  <si>
+    <t>Juan Pablo Varillas (PERU)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-0 6-3</t>
+  </si>
+  <si>
+    <t>7-6(4) 7-6(5) 6-2</t>
+  </si>
+  <si>
+    <t>4-6 7-6(0) 6-2 6-4</t>
+  </si>
+  <si>
+    <t>6-3 5-7 6-1 6-1</t>
+  </si>
+  <si>
+    <t>7-6(1) 6-3 7-5</t>
   </si>
 </sst>
 </file>
@@ -3491,7 +3512,27 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4108,7 +4149,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4848,7 +4889,7 @@
                   <c:v>0.85365853658536583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.8</c:v>
+                  <c:v>0.85185185185185186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6153,7 +6194,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C36E98B0-2E23-43C4-AC91-900BBC829406}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7468,7 +7509,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
@@ -11361,7 +11402,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -12386,7 +12427,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -12955,7 +12996,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -14120,7 +14161,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -14537,7 +14578,7 @@
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
@@ -15544,7 +15585,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16016,13 +16057,13 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -16050,7 +16091,7 @@
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -16058,7 +16099,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
@@ -16092,7 +16133,7 @@
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -16106,7 +16147,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -16120,7 +16161,7 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -16182,7 +16223,7 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -16196,13 +16237,13 @@
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -16210,13 +16251,13 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -16230,7 +16271,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -16238,13 +16279,13 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -16258,7 +16299,7 @@
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -16272,7 +16313,7 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -16300,7 +16341,7 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>1034</v>
+        <v>929</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>20</v>
@@ -16348,7 +16389,7 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -16390,7 +16431,7 @@
         <v>373</v>
       </c>
       <c r="D65" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>20</v>
@@ -16404,7 +16445,7 @@
         <v>373</v>
       </c>
       <c r="D66" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>20</v>
@@ -16435,7 +16476,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>20</v>
@@ -16457,7 +16498,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -16479,31 +16520,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="25" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16616,7 +16657,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -16630,13 +16671,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>1058</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -16672,18 +16713,18 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -16734,13 +16775,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -16782,13 +16823,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -16836,7 +16877,7 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -16850,7 +16891,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -16892,7 +16933,7 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -16912,7 +16953,7 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -16948,13 +16989,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -16968,7 +17009,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -16976,13 +17017,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -16996,12 +17037,12 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -17010,7 +17051,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -17038,13 +17079,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
         <v>1076</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -17063,7 +17104,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -17072,7 +17113,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -17086,7 +17127,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -17120,7 +17161,7 @@
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -17148,13 +17189,13 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -17196,7 +17237,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -17204,13 +17245,13 @@
         <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -17238,7 +17279,7 @@
         <v>373</v>
       </c>
       <c r="D56" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
@@ -17258,7 +17299,7 @@
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -17272,7 +17313,7 @@
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -17292,34 +17333,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18101,10 +18142,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" activeCellId="5" sqref="E2:E6 E8:E14 E16:E18 E21 E24 E27:E29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" activeCellId="2" sqref="A2 A8 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18139,7 +18180,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -18148,7 +18189,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -18168,7 +18209,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -18204,13 +18245,13 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -18224,7 +18265,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -18238,13 +18279,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -18258,7 +18299,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -18266,7 +18307,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -18280,7 +18321,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -18294,13 +18335,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -18314,7 +18355,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -18328,13 +18369,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
         <v>1098</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -18342,7 +18383,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -18390,7 +18431,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -18415,7 +18456,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -18424,13 +18465,13 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
         <v>1102</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -18458,7 +18499,7 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -18478,7 +18519,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -18486,7 +18527,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -18500,42 +18541,149 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>1107</v>
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>929</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>924</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>992</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C22 D21">
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22 D21">
+  <conditionalFormatting sqref="C24">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C28:C30">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C30">
+  <conditionalFormatting sqref="F27:F29">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C34:C38">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18549,8 +18697,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18993,20 +19141,20 @@
         <v>2023</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.85185185185185186</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -19015,15 +19163,15 @@
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C22" s="5">
         <f>SUM(C2:C21)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
@@ -19031,7 +19179,7 @@
       </c>
       <c r="F22" s="6">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.80432737535277521</v>
+        <v>0.80560747663551402</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -19040,15 +19188,15 @@
       </c>
       <c r="B23" s="5">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.65</v>
+        <v>15.7</v>
       </c>
       <c r="C23" s="5">
         <f>AVERAGE(C2:C21)</f>
-        <v>4.6500000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="D23" s="5">
         <f>AVERAGE(D2:D21)</f>
-        <v>53.15</v>
+        <v>53.5</v>
       </c>
       <c r="E23" s="5">
         <f>AVERAGE(E2:E21)</f>
@@ -19056,7 +19204,7 @@
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>0.80432737535277521</v>
+        <v>0.80560747663551402</v>
       </c>
     </row>
   </sheetData>
@@ -21166,7 +21314,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -21296,31 +21444,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="36" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="34" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -22374,7 +22522,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
@@ -23209,7 +23357,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
@@ -25763,7 +25911,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -26995,7 +27143,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5997" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDEC1384-181E-40CD-A6B0-CEE8C961B56C}"/>
+  <xr:revisionPtr revIDLastSave="6022" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDF64267-C0BF-458E-99D5-3B7187F64FFD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5923" uniqueCount="1125">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3406,6 +3406,30 @@
   </si>
   <si>
     <t>7-6(1) 6-3 7-5</t>
+  </si>
+  <si>
+    <t>6-3, 6-4, 7-6 (7-4)</t>
+  </si>
+  <si>
+    <t>Pedro Cachín (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>Jordan Thompson (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>1-6 7-6(6) 6-1 3-6 6-4</t>
+  </si>
+  <si>
+    <t>7-6(6) 7-6(6) 5-7 6-4</t>
+  </si>
+  <si>
+    <t>4-6 6-1 6-4 6-3</t>
+  </si>
+  <si>
+    <t>6-3 6-1 7-6(5)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(4) 7-5</t>
   </si>
 </sst>
 </file>
@@ -4149,7 +4173,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4317,7 +4341,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4889,7 +4913,7 @@
                   <c:v>0.85365853658536583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.85185185185185186</c:v>
+                  <c:v>0.84848484848484851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18142,10 +18166,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A32" activeCellId="2" sqref="A2 A8 A32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E46" activeCellId="4" sqref="E19 E22 E25 E30 E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18155,7 +18179,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18570,7 +18594,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>25</v>
       </c>
@@ -18584,7 +18608,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>4</v>
       </c>
@@ -18598,7 +18622,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>3</v>
       </c>
@@ -18612,7 +18636,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -18626,7 +18650,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>0</v>
       </c>
@@ -18640,7 +18664,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>39</v>
       </c>
@@ -18654,36 +18678,143 @@
         <v>1116</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>955</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1120</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 D21">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:C38">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C38">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="C42:C46">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18698,7 +18829,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19141,20 +19272,20 @@
         <v>2023</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>0.85185185185185186</v>
+        <v>0.84848484848484851</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -19163,7 +19294,7 @@
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C22" s="5">
         <f>SUM(C2:C21)</f>
@@ -19171,15 +19302,15 @@
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.80560747663551402</v>
+        <v>0.80576208178438657</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -19188,7 +19319,7 @@
       </c>
       <c r="B23" s="5">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.7</v>
+        <v>15.75</v>
       </c>
       <c r="C23" s="5">
         <f>AVERAGE(C2:C21)</f>
@@ -19196,15 +19327,15 @@
       </c>
       <c r="D23" s="5">
         <f>AVERAGE(D2:D21)</f>
-        <v>53.5</v>
+        <v>53.8</v>
       </c>
       <c r="E23" s="5">
         <f>AVERAGE(E2:E21)</f>
-        <v>10.4</v>
+        <v>10.45</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>0.80560747663551402</v>
+        <v>0.80576208178438657</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6022" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDF64267-C0BF-458E-99D5-3B7187F64FFD}"/>
+  <xr:revisionPtr revIDLastSave="6041" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E6DB57-5A4D-4AE8-88A6-748D3976CF22}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="4392" yWindow="4056" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5923" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5945" uniqueCount="1127">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3430,6 +3430,12 @@
   </si>
   <si>
     <t>6-3 7-6(4) 7-5</t>
+  </si>
+  <si>
+    <t>7-6(5) 7-5</t>
+  </si>
+  <si>
+    <t>5-7 7-6(7) 7-6(4)</t>
   </si>
 </sst>
 </file>
@@ -3536,7 +3542,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4173,7 +4189,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4913,7 +4929,7 @@
                   <c:v>0.85365853658536583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.84848484848484851</c:v>
+                  <c:v>0.86842105263157898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14953,8 +14969,8 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15608,8 +15624,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16544,31 +16560,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="29" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16582,7 +16598,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -17357,34 +17373,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18166,10 +18182,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" activeCellId="4" sqref="E19 E22 E25 E30 E46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E48" activeCellId="8" sqref="E2:E6 E8:E14 E16:E18 E21 E24 E27:E29 E32:E38 E40:E45 E48:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18782,38 +18798,117 @@
         <v>1120</v>
       </c>
     </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>948</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>888</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1126</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C14">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C14">
+  <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
+  <conditionalFormatting sqref="C18:C19">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C19">
+  <conditionalFormatting sqref="C21:C22 D21">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22 D21">
+  <conditionalFormatting sqref="C24">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C28:C30">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="C34:C38">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C38">
+  <conditionalFormatting sqref="C42:C46">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C46">
+  <conditionalFormatting sqref="C48:C52">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18829,7 +18924,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19272,20 +19367,20 @@
         <v>2023</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>0.84848484848484851</v>
+        <v>0.86842105263157898</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -19294,15 +19389,15 @@
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C22" s="5">
         <f>SUM(C2:C21)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
@@ -19310,7 +19405,7 @@
       </c>
       <c r="F22" s="6">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.80576208178438657</v>
+        <v>0.80666049953746533</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -19319,15 +19414,15 @@
       </c>
       <c r="B23" s="5">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.75</v>
+        <v>15.8</v>
       </c>
       <c r="C23" s="5">
         <f>AVERAGE(C2:C21)</f>
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="D23" s="5">
         <f>AVERAGE(D2:D21)</f>
-        <v>53.8</v>
+        <v>54.05</v>
       </c>
       <c r="E23" s="5">
         <f>AVERAGE(E2:E21)</f>
@@ -19335,7 +19430,7 @@
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>0.80576208178438657</v>
+        <v>0.80666049953746521</v>
       </c>
     </row>
   </sheetData>
@@ -21575,31 +21670,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="37" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="36" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6041" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25E6DB57-5A4D-4AE8-88A6-748D3976CF22}"/>
+  <xr:revisionPtr revIDLastSave="6066" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B587E677-DC3F-468C-B4EF-CAD20A9E0EAB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4392" yWindow="4056" windowWidth="17280" windowHeight="8880" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5945" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5975" uniqueCount="1135">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3436,6 +3436,30 @@
   </si>
   <si>
     <t>5-7 7-6(7) 7-6(4)</t>
+  </si>
+  <si>
+    <t>Alexandre Müller (FRANCE)</t>
+  </si>
+  <si>
+    <t>Bernabe Zapata Miralles (SPAIN)</t>
+  </si>
+  <si>
+    <t>Laslo Djere (SERBIA)</t>
+  </si>
+  <si>
+    <t>Borna Gojo (CROATIA)</t>
+  </si>
+  <si>
+    <t>Ben Shelton (USA)</t>
+  </si>
+  <si>
+    <t>4-6 4-6 6-1 6-1 6-3</t>
+  </si>
+  <si>
+    <t>6-2 7-5 6-4</t>
+  </si>
+  <si>
+    <t>6-3 6-2 7-6(4)</t>
   </si>
 </sst>
 </file>
@@ -3542,7 +3566,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4189,7 +4223,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4929,7 +4963,7 @@
                   <c:v>0.85365853658536583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.86842105263157898</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16560,31 +16594,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -17373,34 +17407,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18182,10 +18216,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E48" activeCellId="8" sqref="E2:E6 E8:E14 E16:E18 E21 E24 E27:E29 E32:E38 E40:E45 E48:E52"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E54" activeCellId="9" sqref="E2:E6 E8:E14 E16:E18 E21 E24 E27:E29 E32:E38 E40:E45 E48:E52 E54:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18818,7 +18852,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>3</v>
       </c>
@@ -18832,7 +18866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -18846,7 +18880,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>0</v>
       </c>
@@ -18860,7 +18894,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>39</v>
       </c>
@@ -18874,41 +18908,148 @@
         <v>1126</v>
       </c>
     </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>948</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>879</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C14">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C14">
+  <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
+  <conditionalFormatting sqref="C18:C19">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C19">
+  <conditionalFormatting sqref="C21:C22 D21">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22 D21">
+  <conditionalFormatting sqref="C24">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C28:C30">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="C34:C38">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C38">
+  <conditionalFormatting sqref="C42:C46">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C46">
+  <conditionalFormatting sqref="C48:C52">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C52">
+  <conditionalFormatting sqref="C56:C60">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19367,20 +19508,20 @@
         <v>2023</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>0.86842105263157898</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -19389,15 +19530,15 @@
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C22" s="5">
         <f>SUM(C2:C21)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>1081</v>
+        <v>1088</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
@@ -19405,7 +19546,7 @@
       </c>
       <c r="F22" s="6">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.80666049953746533</v>
+        <v>0.80790441176470584</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -19414,15 +19555,15 @@
       </c>
       <c r="B23" s="5">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.8</v>
+        <v>15.85</v>
       </c>
       <c r="C23" s="5">
         <f>AVERAGE(C2:C21)</f>
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="D23" s="5">
         <f>AVERAGE(D2:D21)</f>
-        <v>54.05</v>
+        <v>54.4</v>
       </c>
       <c r="E23" s="5">
         <f>AVERAGE(E2:E21)</f>
@@ -19430,7 +19571,7 @@
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>0.80666049953746521</v>
+        <v>0.80790441176470595</v>
       </c>
     </row>
   </sheetData>
@@ -21670,31 +21811,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="39" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="38" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6078" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE090C9-BD7C-42AF-A423-60B56D68DD10}"/>
+  <xr:revisionPtr revIDLastSave="6100" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{804B9BD7-48F5-452D-9253-B7D5907A4A42}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="7" activeTab="19" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="15285" firstSheet="7" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5975" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5997" uniqueCount="1139">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3399,9 +3399,6 @@
     <t>7-6(1) 6-3 7-5</t>
   </si>
   <si>
-    <t>6-3, 6-4, 7-6 (7-4)</t>
-  </si>
-  <si>
     <t>Pedro Cachín (ARGENTINA)</t>
   </si>
   <si>
@@ -3463,6 +3460,18 @@
   </si>
   <si>
     <t>Fernando González (CHILE)</t>
+  </si>
+  <si>
+    <t>4-6 7-6(2) 6-4</t>
+  </si>
+  <si>
+    <t>5-7 7-6(3) 7-5</t>
+  </si>
+  <si>
+    <t>7-5 6-7(3) 6-4</t>
+  </si>
+  <si>
+    <t>6-3 6-4 7-6 (7-4)</t>
   </si>
 </sst>
 </file>
@@ -3569,7 +3578,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4226,7 +4245,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4966,7 +4985,7 @@
                   <c:v>0.85365853658536583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6259,7 +6278,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7BFEE915-1E83-4B37-9DF5-B3031667E8A4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6271,7 +6290,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C36E98B0-2E23-43C4-AC91-900BBC829406}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6650,7 +6669,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -7125,7 +7144,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -8435,7 +8454,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -9595,7 +9614,7 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -10987,7 +11006,7 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -12180,7 +12199,7 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -12867,7 +12886,7 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -13920,7 +13939,7 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -15006,7 +15025,7 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -15661,7 +15680,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -16597,31 +16616,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="30" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16635,7 +16654,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -17410,34 +17429,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="22" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="21" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="20" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="17" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="16" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -17451,7 +17470,7 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -18014,7 +18033,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>19</v>
@@ -18068,7 +18087,7 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>19</v>
@@ -18219,10 +18238,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E62" activeCellId="10" sqref="E2:E6 E8:E14 E16:E18 E21 E24 E27:E29 E32:E38 E40:E45 E48:E52 E54:E60 E62:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18742,7 +18761,7 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -18756,13 +18775,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -18776,7 +18795,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -18790,7 +18809,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -18804,7 +18823,7 @@
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -18818,7 +18837,7 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>1114</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -18832,7 +18851,7 @@
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -18894,7 +18913,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -18908,7 +18927,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -18922,7 +18941,7 @@
         <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
@@ -18936,7 +18955,7 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -18950,13 +18969,13 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -18964,13 +18983,13 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -18992,13 +19011,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -19015,45 +19034,124 @@
         <v>120</v>
       </c>
     </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" t="s">
+        <v>674</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C14">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C14">
+  <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
+  <conditionalFormatting sqref="C18:C19">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:C19">
+  <conditionalFormatting sqref="C21:C22 D21">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C22 D21">
+  <conditionalFormatting sqref="C24">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C25">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
+  <conditionalFormatting sqref="C28:C30">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  <conditionalFormatting sqref="C34:C38">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C38">
+  <conditionalFormatting sqref="C42:C46">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C46">
+  <conditionalFormatting sqref="C48:C52">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C52">
+  <conditionalFormatting sqref="C56:C60">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="F27:F29">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="C62:C66">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19068,7 +19166,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19511,20 +19609,20 @@
         <v>2023</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -19533,15 +19631,15 @@
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C22" s="5">
         <f>SUM(C2:C21)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
@@ -19549,7 +19647,7 @@
       </c>
       <c r="F22" s="6">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.80790441176470584</v>
+        <v>0.80878316559926811</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -19558,15 +19656,15 @@
       </c>
       <c r="B23" s="5">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.85</v>
+        <v>15.9</v>
       </c>
       <c r="C23" s="5">
         <f>AVERAGE(C2:C21)</f>
-        <v>4.8</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="D23" s="5">
         <f>AVERAGE(D2:D21)</f>
-        <v>54.4</v>
+        <v>54.65</v>
       </c>
       <c r="E23" s="5">
         <f>AVERAGE(E2:E21)</f>
@@ -19574,7 +19672,7 @@
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>0.80790441176470595</v>
+        <v>0.80878316559926811</v>
       </c>
     </row>
   </sheetData>
@@ -19599,7 +19697,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -20186,7 +20284,7 @@
         <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -20434,7 +20532,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>20</v>
@@ -20496,7 +20594,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>19</v>
@@ -20538,7 +20636,7 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -20659,7 +20757,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -21814,31 +21912,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="40" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="38" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -21852,7 +21950,7 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -23014,7 +23112,7 @@
   </sheetPr>
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A96" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -24553,7 +24651,7 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -25823,7 +25921,7 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -27069,7 +27167,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6101" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E620D8F4-602D-431D-A0EE-B78083E6CCC9}"/>
+  <xr:revisionPtr revIDLastSave="6136" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4079C5C7-492E-4339-9502-4714442ED218}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" firstSheet="9" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5997" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6030" uniqueCount="1142">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3472,6 +3472,15 @@
   </si>
   <si>
     <t>6-3 6-4 7-6 (7-4)</t>
+  </si>
+  <si>
+    <t>7-6(4) 6-7(1) 6-3</t>
+  </si>
+  <si>
+    <t>7-5 6-7(5) 7-6(2)</t>
+  </si>
+  <si>
+    <t>7-6(1) 4-6 6-1</t>
   </si>
 </sst>
 </file>
@@ -4245,7 +4254,7 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4413,7 +4422,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4985,7 +4994,7 @@
                   <c:v>0.85365853658536583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6278,7 +6287,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7BFEE915-1E83-4B37-9DF5-B3031667E8A4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6290,7 +6299,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C36E98B0-2E23-43C4-AC91-900BBC829406}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6669,7 +6678,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -7144,7 +7153,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -8454,7 +8463,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -9614,7 +9623,7 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -11006,7 +11015,7 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -12199,7 +12208,7 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -12886,7 +12895,7 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -13939,7 +13948,7 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -15025,7 +15034,7 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -15680,7 +15689,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -16654,8 +16663,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17400,7 +17409,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="D58" t="s">
         <v>945</v>
@@ -17470,7 +17479,7 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -18238,10 +18247,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E76" activeCellId="6" sqref="E19 E22 E25 E30 E46 E69 E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19082,7 +19091,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>0</v>
       </c>
@@ -19096,7 +19105,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>39</v>
       </c>
@@ -19108,6 +19117,121 @@
       </c>
       <c r="F66" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>515</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>370</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>370</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>370</v>
+      </c>
+      <c r="D70" t="s">
+        <v>952</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -19148,10 +19272,10 @@
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19166,7 +19290,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19609,20 +19733,20 @@
         <v>2023</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -19631,23 +19755,23 @@
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C22" s="5">
         <f>SUM(C2:C21)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.80878316559926811</v>
+        <v>0.80800727934485894</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -19656,23 +19780,23 @@
       </c>
       <c r="B23" s="5">
         <f>AVERAGE(B2:B21)</f>
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C23" s="5">
         <f>AVERAGE(C2:C21)</f>
-        <v>4.8499999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D23" s="5">
         <f>AVERAGE(D2:D21)</f>
-        <v>54.65</v>
+        <v>54.95</v>
       </c>
       <c r="E23" s="5">
         <f>AVERAGE(E2:E21)</f>
-        <v>10.45</v>
+        <v>10.55</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="1"/>
-        <v>0.80878316559926811</v>
+        <v>0.80800727934485905</v>
       </c>
     </row>
   </sheetData>
@@ -19697,7 +19821,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -20636,7 +20760,7 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -21950,7 +22074,7 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -23112,7 +23236,7 @@
   </sheetPr>
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A96" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -24651,7 +24775,7 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -25921,7 +26045,7 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -27167,7 +27291,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6136" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4079C5C7-492E-4339-9502-4714442ED218}"/>
+  <xr:revisionPtr revIDLastSave="6138" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B4BAF4C-38DC-4A2D-A9A2-7FAF132855AB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8880" firstSheet="9" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -6287,7 +6287,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7BFEE915-1E83-4B37-9DF5-B3031667E8A4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6299,7 +6299,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C36E98B0-2E23-43C4-AC91-900BBC829406}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6370,10 +6370,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6678,8 +6674,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7153,8 +7149,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8463,8 +8459,8 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9623,8 +9619,8 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11015,8 +11011,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12208,8 +12204,8 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12895,8 +12891,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13948,8 +13944,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15034,8 +15030,8 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15689,8 +15685,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16663,8 +16659,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17479,8 +17475,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18249,8 +18245,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E76" activeCellId="6" sqref="E19 E22 E25 E30 E46 E69 E76"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19272,10 +19268,10 @@
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19290,7 +19286,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19821,8 +19817,8 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20760,8 +20756,8 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22074,8 +22070,8 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23236,8 +23232,8 @@
   </sheetPr>
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24775,8 +24771,8 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26045,8 +26041,8 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27291,8 +27287,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6141" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40AE2386-CE3D-4B80-B6AC-8536D549974E}"/>
+  <xr:revisionPtr revIDLastSave="6195" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72E2C081-7438-4F81-8F37-CF09AC5545E9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="23" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -33,9 +33,10 @@
     <sheet name="2021" sheetId="33" r:id="rId18"/>
     <sheet name="2022" sheetId="28" r:id="rId19"/>
     <sheet name="2023" sheetId="36" r:id="rId20"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId21"/>
-    <sheet name="Wins-Losses" sheetId="37" r:id="rId22"/>
-    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId23"/>
+    <sheet name="2024" sheetId="40" r:id="rId21"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId22"/>
+    <sheet name="Wins-Losses" sheetId="41" r:id="rId23"/>
+    <sheet name="Winning Percentile Range" sheetId="42" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6030" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="1148">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3481,6 +3482,24 @@
   </si>
   <si>
     <t>7-6(1) 4-6 6-1</t>
+  </si>
+  <si>
+    <t>Dino Prižmić (CROATIA)</t>
+  </si>
+  <si>
+    <t>6-1 6-2 6-7(6) 6-3</t>
+  </si>
+  <si>
+    <t>7-6(3) 4-6 6-2 6-3</t>
+  </si>
+  <si>
+    <t>6-3 6-3 7-6(2)</t>
+  </si>
+  <si>
+    <t>6-3 4-6 7-6(4) 6-3</t>
+  </si>
+  <si>
+    <t>6-2 6-7(5) 6-3 6-4</t>
   </si>
 </sst>
 </file>
@@ -3587,7 +3606,27 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4056,8 +4095,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Novak Djokovic (SERBIA): Wins-Losses</a:t>
+              <a:t>Novak Djokovic (SERBIA):</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Wins-Losses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4123,10 +4167,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2004</c:v>
                 </c:pt>
@@ -4187,15 +4231,18 @@
                 <c:pt idx="19">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$21</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -4256,12 +4303,15 @@
                 <c:pt idx="19">
                   <c:v>56</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A003-4B4F-B2C7-BC3D76E032CB}"/>
+              <c16:uniqueId val="{00000000-BC59-4C44-9ED4-0702B875D697}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4291,10 +4341,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2004</c:v>
                 </c:pt>
@@ -4355,15 +4405,18 @@
                 <c:pt idx="19">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$21</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -4424,12 +4477,15 @@
                 <c:pt idx="19">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A003-4B4F-B2C7-BC3D76E032CB}"/>
+              <c16:uniqueId val="{00000001-BC59-4C44-9ED4-0702B875D697}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4443,11 +4499,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="190894655"/>
-        <c:axId val="190890079"/>
+        <c:axId val="1171423439"/>
+        <c:axId val="1257649183"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190894655"/>
+        <c:axId val="1171423439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4545,7 +4601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190890079"/>
+        <c:crossAx val="1257649183"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4553,7 +4609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190890079"/>
+        <c:axId val="1257649183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4659,7 +4715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190894655"/>
+        <c:crossAx val="1171423439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4769,8 +4825,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Novak Djokovic (SERBIA): Winning Percentile Range</a:t>
+              <a:t>Novak Djokovic</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> (SERBIA): Winning Percentile Range</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4863,10 +4924,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2004</c:v>
                 </c:pt>
@@ -4927,15 +4988,18 @@
                 <c:pt idx="19">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$21</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.55555555555555558</c:v>
                 </c:pt>
@@ -4996,13 +5060,16 @@
                 <c:pt idx="19">
                   <c:v>0.875</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0992-41B2-A302-9886486F14E4}"/>
+              <c16:uniqueId val="{00000000-B0DB-4678-91A6-7EC1BB63AEC5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5016,16 +5083,71 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1906390303"/>
-        <c:axId val="1906377823"/>
+        <c:axId val="1171421039"/>
+        <c:axId val="691529039"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1906390303"/>
+        <c:axId val="1171421039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>YEAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5063,7 +5185,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1906377823"/>
+        <c:crossAx val="691529039"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5071,7 +5193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1906377823"/>
+        <c:axId val="691529039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5091,6 +5213,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>PERCENTAGE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5122,7 +5299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1906390303"/>
+        <c:crossAx val="1171421039"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6284,25 +6461,26 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7BFEE915-1E83-4B37-9DF5-B3031667E8A4}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D45F5341-46F1-475A-9153-7176669D0116}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2CE251B0-8B2F-44F7-935E-957E23BDBAFE}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C36E98B0-2E23-43C4-AC91-900BBC829406}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -6310,13 +6488,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DF9255-0316-9ACC-2DB5-29D749778654}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8AB75F0-843D-9070-5368-BE2DAADDF3E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6343,13 +6521,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6654AF93-8D19-F2F8-CFF6-1DE36998E50C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5CE59B-4B3D-7673-5D72-EF70D711CF4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6372,10 +6550,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6413,7 +6595,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6519,7 +6701,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6661,7 +6843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6674,7 +6856,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7149,7 +7331,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A87" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8459,7 +8641,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9619,7 +9801,7 @@
   </sheetPr>
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11011,7 +11193,7 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12204,7 +12386,7 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12891,7 +13073,7 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13944,7 +14126,7 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15030,7 +15212,7 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15685,7 +15867,7 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -16621,31 +16803,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="31" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="30" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16659,7 +16841,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17434,34 +17616,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="21" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -17475,7 +17657,7 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18245,8 +18427,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19232,46 +19414,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 D21">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C38">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C46">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C52">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19279,14 +19461,154 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE01757-B7EB-41B1-89BE-19AC7121FA12}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>967</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>945</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:C7">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A22 F1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19337,7 +19659,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F21" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F22" si="0">(D2-E2)/D2</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -19746,57 +20068,78 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="5">
-        <f>SUM(B2:B21)</f>
-        <v>320</v>
-      </c>
-      <c r="C22" s="5">
-        <f>SUM(C2:C21)</f>
-        <v>98</v>
-      </c>
-      <c r="D22" s="5">
-        <f>SUM(D2:D21)</f>
-        <v>1099</v>
-      </c>
-      <c r="E22" s="5">
-        <f>SUM(E2:E21)</f>
-        <v>211</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.80800727934485894</v>
+      <c r="A22">
+        <v>2024</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="5">
+        <f>SUM(B2:B22)</f>
+        <v>321</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUM(C2:C22)</f>
+        <v>98</v>
+      </c>
+      <c r="D23" s="5">
+        <f>SUM(D2:D22)</f>
+        <v>1104</v>
+      </c>
+      <c r="E23" s="5">
+        <f>SUM(E2:E22)</f>
+        <v>212</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
+        <v>0.80797101449275366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="5">
-        <f>AVERAGE(B2:B21)</f>
-        <v>16</v>
-      </c>
-      <c r="C23" s="5">
-        <f>AVERAGE(C2:C21)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D23" s="5">
-        <f>AVERAGE(D2:D21)</f>
-        <v>54.95</v>
-      </c>
-      <c r="E23" s="5">
-        <f>AVERAGE(E2:E21)</f>
-        <v>10.55</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="B24" s="5">
+        <f>AVERAGE(B2:B22)</f>
+        <v>15.285714285714286</v>
+      </c>
+      <c r="C24" s="5">
+        <f>AVERAGE(C2:C22)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D24" s="5">
+        <f>AVERAGE(D2:D22)</f>
+        <v>52.571428571428569</v>
+      </c>
+      <c r="E24" s="5">
+        <f>AVERAGE(E2:E22)</f>
+        <v>10.095238095238095</v>
+      </c>
+      <c r="F24" s="6">
         <f t="shared" si="1"/>
-        <v>0.80800727934485905</v>
+        <v>0.80797101449275366</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F21">
+  <conditionalFormatting sqref="F2:F22">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -19817,7 +20160,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -20756,7 +21099,7 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -22032,31 +22375,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="41" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="40" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -22070,7 +22413,7 @@
   </sheetPr>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -23232,7 +23575,7 @@
   </sheetPr>
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+    <sheetView topLeftCell="A96" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -24771,7 +25114,7 @@
   </sheetPr>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -26041,7 +26384,7 @@
   </sheetPr>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -27287,7 +27630,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6195" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72E2C081-7438-4F81-8F37-CF09AC5545E9}"/>
+  <xr:revisionPtr revIDLastSave="6196" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBDC4BA9-F63A-414B-B85E-3850B1A2E772}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="23" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="18585" windowHeight="17820" firstSheet="9" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="1147">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3014,9 +3014,6 @@
   </si>
   <si>
     <t>6-5 RETIRED</t>
-  </si>
-  <si>
-    <t>7-6 (9-7), 6-3</t>
   </si>
   <si>
     <t>Dominik Koepfer (GERMANY)</t>
@@ -3606,17 +3603,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6476,7 +6463,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2CE251B0-8B2F-44F7-935E-957E23BDBAFE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6555,9 +6542,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6595,7 +6582,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6701,7 +6688,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6843,7 +6830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7792,7 +7779,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
@@ -11685,7 +11672,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -12710,7 +12697,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -13073,8 +13060,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13279,7 +13266,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -14126,8 +14113,8 @@
   </sheetPr>
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14444,7 +14431,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -14861,7 +14848,7 @@
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
@@ -15212,8 +15199,8 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15595,7 +15582,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>986</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -15603,13 +15590,13 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
+        <v>986</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
         <v>987</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -15617,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
@@ -15651,13 +15638,13 @@
         <v>24</v>
       </c>
       <c r="D33" t="s">
+        <v>990</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
         <v>991</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -15679,13 +15666,13 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -15699,7 +15686,7 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -15713,7 +15700,7 @@
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -15727,7 +15714,7 @@
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -15741,7 +15728,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -15761,7 +15748,7 @@
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -15775,7 +15762,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -15783,7 +15770,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>19</v>
@@ -15851,7 +15838,7 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -15926,13 +15913,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15946,7 +15933,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -15960,7 +15947,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -15974,7 +15961,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -15982,7 +15969,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -16016,7 +16003,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -16030,7 +16017,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
@@ -16050,7 +16037,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -16064,7 +16051,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -16078,13 +16065,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -16104,7 +16091,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -16112,7 +16099,7 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -16132,7 +16119,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -16140,7 +16127,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -16160,12 +16147,12 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -16174,7 +16161,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>20</v>
@@ -16188,7 +16175,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>20</v>
@@ -16202,13 +16189,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -16216,7 +16203,7 @@
         <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>20</v>
@@ -16242,7 +16229,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -16250,7 +16237,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -16278,13 +16265,13 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -16298,7 +16285,7 @@
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -16312,7 +16299,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -16326,7 +16313,7 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -16340,13 +16327,13 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -16374,7 +16361,7 @@
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -16382,13 +16369,13 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -16416,7 +16403,7 @@
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -16430,7 +16417,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -16444,7 +16431,7 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -16472,7 +16459,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>20</v>
@@ -16506,7 +16493,7 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -16520,13 +16507,13 @@
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -16534,13 +16521,13 @@
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -16554,7 +16541,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -16562,13 +16549,13 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -16582,7 +16569,7 @@
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -16596,7 +16583,7 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -16672,7 +16659,7 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -16700,7 +16687,7 @@
         <v>370</v>
       </c>
       <c r="D64" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
@@ -16714,7 +16701,7 @@
         <v>370</v>
       </c>
       <c r="D65" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>20</v>
@@ -16728,7 +16715,7 @@
         <v>370</v>
       </c>
       <c r="D66" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>20</v>
@@ -16759,7 +16746,7 @@
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>20</v>
@@ -16781,7 +16768,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -16803,31 +16790,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16886,7 +16873,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -16934,13 +16921,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -16954,13 +16941,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>1054</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -16968,7 +16955,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -16996,18 +16983,18 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -17058,13 +17045,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -17078,7 +17065,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -17106,13 +17093,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -17120,7 +17107,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -17160,7 +17147,7 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -17168,13 +17155,13 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -17216,7 +17203,7 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17230,13 +17217,13 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -17258,7 +17245,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
@@ -17272,13 +17259,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -17286,13 +17273,13 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -17300,13 +17287,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -17320,12 +17307,12 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -17334,7 +17321,7 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
@@ -17362,13 +17349,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
         <v>1072</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -17387,7 +17374,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -17396,7 +17383,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>20</v>
@@ -17410,7 +17397,7 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
@@ -17444,7 +17431,7 @@
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -17472,13 +17459,13 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -17500,7 +17487,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>20</v>
@@ -17520,7 +17507,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -17528,13 +17515,13 @@
         <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -17562,7 +17549,7 @@
         <v>370</v>
       </c>
       <c r="D56" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
@@ -17582,7 +17569,7 @@
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -17596,7 +17583,7 @@
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -17604,7 +17591,7 @@
         <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>20</v>
@@ -17616,34 +17603,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18220,7 +18207,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>19</v>
@@ -18274,7 +18261,7 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>19</v>
@@ -18463,7 +18450,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -18472,7 +18459,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -18492,7 +18479,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -18528,13 +18515,13 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -18548,7 +18535,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -18562,13 +18549,13 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -18582,7 +18569,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -18590,7 +18577,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -18604,7 +18591,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -18618,13 +18605,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -18638,7 +18625,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -18652,13 +18639,13 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
         <v>1094</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -18666,7 +18653,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>20</v>
@@ -18714,7 +18701,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>20</v>
@@ -18728,7 +18715,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>19</v>
@@ -18739,7 +18726,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -18748,13 +18735,13 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
         <v>1098</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -18782,7 +18769,7 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
@@ -18802,7 +18789,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -18810,7 +18797,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>20</v>
@@ -18824,13 +18811,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -18844,13 +18831,13 @@
         <v>24</v>
       </c>
       <c r="D32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
         <v>1106</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -18864,7 +18851,7 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -18872,13 +18859,13 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -18886,7 +18873,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -18906,7 +18893,7 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -18914,13 +18901,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -18928,13 +18915,13 @@
         <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -18948,7 +18935,7 @@
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>20</v>
@@ -18962,13 +18949,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -18982,7 +18969,7 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -18996,7 +18983,7 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -19004,13 +18991,13 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -19018,13 +19005,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -19032,13 +19019,13 @@
         <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -19052,7 +19039,7 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>20</v>
@@ -19100,7 +19087,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -19108,13 +19095,13 @@
         <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -19128,13 +19115,13 @@
         <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -19142,7 +19129,7 @@
         <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>20</v>
@@ -19156,13 +19143,13 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -19170,13 +19157,13 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -19198,13 +19185,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -19232,7 +19219,7 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>20</v>
@@ -19246,13 +19233,13 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -19260,13 +19247,13 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -19274,13 +19261,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -19308,13 +19295,13 @@
         <v>370</v>
       </c>
       <c r="D68" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -19322,13 +19309,13 @@
         <v>370</v>
       </c>
       <c r="D69" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -19342,7 +19329,7 @@
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -19350,7 +19337,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>20</v>
@@ -19364,7 +19351,7 @@
         <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>20</v>
@@ -19381,7 +19368,7 @@
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>20</v>
@@ -19392,7 +19379,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>20</v>
@@ -19403,7 +19390,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>19</v>
@@ -19414,46 +19401,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 D21">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C38">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C46">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C52">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19512,13 +19499,13 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -19532,7 +19519,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -19540,13 +19527,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -19574,7 +19561,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -19582,13 +19569,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
@@ -20747,7 +20734,7 @@
         <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>20</v>
@@ -20995,7 +20982,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>20</v>
@@ -21057,7 +21044,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>19</v>
@@ -21220,7 +21207,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -22245,7 +22232,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -22375,31 +22362,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="43" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="42" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -23453,7 +23440,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
@@ -24288,7 +24275,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
@@ -26842,7 +26829,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -28074,7 +28061,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B34" t="s">
         <v>28</v>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Tennis\ATP Tour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6196" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBDC4BA9-F63A-414B-B85E-3850B1A2E772}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0341A9C2-0819-4B37-AF7A-77AEDC39BB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="18585" windowHeight="17820" firstSheet="9" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6072" uniqueCount="1149">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3497,6 +3497,12 @@
   </si>
   <si>
     <t>6-2 6-7(5) 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Luca Nardi (ITALY)</t>
+  </si>
+  <si>
+    <t>Aleksandar Vukic (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -3603,7 +3609,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4291,7 +4307,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4465,7 +4481,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5048,7 +5064,7 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6537,14 +6553,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6582,7 +6594,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6688,7 +6700,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6830,7 +6842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -15199,7 +15211,7 @@
   </sheetPr>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -16790,31 +16802,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="32" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="30" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -17603,34 +17615,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="24" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19401,46 +19413,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 D21">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C38">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C46">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C52">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19452,15 +19464,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
@@ -19578,8 +19590,45 @@
         <v>1142</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C7">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19594,8 +19643,8 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A22 F1:F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20059,20 +20108,20 @@
         <v>2024</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -20081,7 +20130,7 @@
       </c>
       <c r="B23" s="5">
         <f>SUM(B2:B22)</f>
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C23" s="5">
         <f>SUM(C2:C22)</f>
@@ -20089,15 +20138,15 @@
       </c>
       <c r="D23" s="5">
         <f>SUM(D2:D22)</f>
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E23" s="5">
         <f>SUM(E2:E22)</f>
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.80797101449275366</v>
+        <v>0.80723981900452491</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -20106,7 +20155,7 @@
       </c>
       <c r="B24" s="5">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.285714285714286</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="C24" s="5">
         <f>AVERAGE(C2:C22)</f>
@@ -20114,15 +20163,15 @@
       </c>
       <c r="D24" s="5">
         <f>AVERAGE(D2:D22)</f>
-        <v>52.571428571428569</v>
+        <v>52.61904761904762</v>
       </c>
       <c r="E24" s="5">
         <f>AVERAGE(E2:E22)</f>
-        <v>10.095238095238095</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="1"/>
-        <v>0.80797101449275366</v>
+        <v>0.80723981900452502</v>
       </c>
     </row>
   </sheetData>
@@ -22362,31 +22411,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="42" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="41" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="39" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="38" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="36" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B101CC1D-EF47-486D-AAC8-9594576042DC}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39CCF976-9D5C-4EBB-9616-497CAA03ABC8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="10" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6100" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6114" uniqueCount="1155">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3512,6 +3512,15 @@
   </si>
   <si>
     <t>Alejandro Tabilo (CHILE)</t>
+  </si>
+  <si>
+    <t>GENEVA OPEN</t>
+  </si>
+  <si>
+    <t>Yannick Hanfmann (GERMANY)</t>
+  </si>
+  <si>
+    <t>6-4 0-6 6-1</t>
   </si>
 </sst>
 </file>
@@ -3618,7 +3627,27 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4336,7 +4365,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4510,7 +4539,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5093,7 +5122,7 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6582,6 +6611,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -16831,31 +16864,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="36" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="34" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="33" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="32" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -17644,34 +17677,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18456,7 +18489,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19442,46 +19475,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 D21">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C38">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C46">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C52">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19493,10 +19526,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" activeCellId="4" sqref="E2:E6 E9 E12:E14 E17 E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19749,17 +19782,71 @@
         <v>8</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1154</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C7">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C15">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C18">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C15">
+  <conditionalFormatting sqref="C20:C22 D20 F20:F22">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="D22">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19775,7 +19862,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20239,20 +20326,20 @@
         <v>2024</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -20261,7 +20348,7 @@
       </c>
       <c r="B23" s="5">
         <f>SUM(B2:B22)</f>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C23" s="5">
         <f>SUM(C2:C22)</f>
@@ -20269,15 +20356,15 @@
       </c>
       <c r="D23" s="5">
         <f>SUM(D2:D22)</f>
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="E23" s="5">
         <f>SUM(E2:E22)</f>
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.80613165013525701</v>
+        <v>0.80558055805580553</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -20286,7 +20373,7 @@
       </c>
       <c r="B24" s="5">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.428571428571429</v>
+        <v>15.476190476190476</v>
       </c>
       <c r="C24" s="5">
         <f>AVERAGE(C2:C22)</f>
@@ -20294,15 +20381,15 @@
       </c>
       <c r="D24" s="5">
         <f>AVERAGE(D2:D22)</f>
-        <v>52.80952380952381</v>
+        <v>52.904761904761905</v>
       </c>
       <c r="E24" s="5">
         <f>AVERAGE(E2:E22)</f>
-        <v>10.238095238095237</v>
+        <v>10.285714285714286</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="1"/>
-        <v>0.80613165013525689</v>
+        <v>0.80558055805580564</v>
       </c>
     </row>
   </sheetData>
@@ -22542,31 +22629,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="45" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="44" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="43" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="42" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="41" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DF676E9-85FF-4590-8852-5D0F40D4725C}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4721852F-77F3-4A47-87CD-E5F5DFA31A12}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="20" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6136" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6166" uniqueCount="1163">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3505,9 +3505,6 @@
     <t>Aleksandar Vukic (AUSTRALIA)</t>
   </si>
   <si>
-    <t>Lorenzo Musetti</t>
-  </si>
-  <si>
     <t>6-4 1-6 6-4</t>
   </si>
   <si>
@@ -3533,6 +3530,21 @@
   </si>
   <si>
     <t>Francisco Cerúndolo (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>Vit Kopriva (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Jacob Fearnley (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-3 6-4 5-7 7-5</t>
+  </si>
+  <si>
+    <t>6-4 7-6(2) 6-4</t>
+  </si>
+  <si>
+    <t>6-2 6-2 7-6(4)</t>
   </si>
 </sst>
 </file>
@@ -3639,7 +3651,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4387,7 +4409,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4561,7 +4583,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5144,7 +5166,7 @@
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6875</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16886,31 +16908,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="39" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="38" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C42">
-    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C48">
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:C62">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -17699,34 +17721,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="30" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="29" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="27" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="26" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="24" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C47">
-    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18510,8 +18532,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19497,46 +19519,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 D21">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C38">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:C46">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C52">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19548,10 +19570,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E35" activeCellId="7" sqref="E2:E6 E9 E12:E14 E17 E20:E21 E24:E27 E30:E33 E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19733,7 +19755,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>1149</v>
+        <v>1028</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -19767,7 +19789,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -19795,7 +19817,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>19</v>
@@ -19806,7 +19828,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -19815,7 +19837,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>20</v>
@@ -19849,7 +19871,7 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -19869,7 +19891,7 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -19897,7 +19919,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -19905,13 +19927,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -19928,27 +19950,134 @@
         <v>524</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>967</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1162</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C7">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
+  <conditionalFormatting sqref="C12:C15">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C15">
+  <conditionalFormatting sqref="C18">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C20:C22 D20 F20:F22">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C22 D20 F20:F22">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="C26:C28">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28">
+  <conditionalFormatting sqref="C32:C35">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19962,8 +20091,8 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20427,20 +20556,20 @@
         <v>2024</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -20449,7 +20578,7 @@
       </c>
       <c r="B23" s="5">
         <f>SUM(B2:B22)</f>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C23" s="5">
         <f>SUM(C2:C22)</f>
@@ -20457,15 +20586,15 @@
       </c>
       <c r="D23" s="5">
         <f>SUM(D2:D22)</f>
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="E23" s="5">
         <f>SUM(E2:E22)</f>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.80627802690582961</v>
+        <v>0.80625000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -20474,7 +20603,7 @@
       </c>
       <c r="B24" s="5">
         <f>AVERAGE(B2:B22)</f>
-        <v>15.523809523809524</v>
+        <v>15.571428571428571</v>
       </c>
       <c r="C24" s="5">
         <f>AVERAGE(C2:C22)</f>
@@ -20482,15 +20611,15 @@
       </c>
       <c r="D24" s="5">
         <f>AVERAGE(D2:D22)</f>
-        <v>53.095238095238095</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="E24" s="5">
         <f>AVERAGE(E2:E22)</f>
-        <v>10.285714285714286</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="1"/>
-        <v>0.80627802690582961</v>
+        <v>0.80624999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -22730,31 +22859,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="48" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="47" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="46" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="45" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="44" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="43" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="42" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F41B642E-35DB-4D61-A363-7238EDABDE2F}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9FFA23D-E483-4503-94ED-125EB3F265CD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1980" yWindow="6135" windowWidth="8625" windowHeight="15285" firstSheet="13" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="13" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -34,9 +34,10 @@
     <sheet name="2022" sheetId="28" r:id="rId19"/>
     <sheet name="2023" sheetId="36" r:id="rId20"/>
     <sheet name="2024" sheetId="40" r:id="rId21"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId22"/>
-    <sheet name="Wins-Losses" sheetId="41" r:id="rId23"/>
-    <sheet name="Winning Percentile Range" sheetId="42" r:id="rId24"/>
+    <sheet name="2025" sheetId="43" r:id="rId22"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId23"/>
+    <sheet name="Wins-Losses" sheetId="44" r:id="rId24"/>
+    <sheet name="Winning Percentile Range" sheetId="45" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6196" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6216" uniqueCount="1174">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3572,6 +3573,12 @@
   </si>
   <si>
     <t>Jakub Mensik (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Rinky Hijikata (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>Reilly Opelka (USA)</t>
   </si>
 </sst>
 </file>
@@ -3678,7 +3685,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4257,11 +4274,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Novak Djokovic (SERBIA):</a:t>
+              <a:t>Novak Djokovic</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Wins-Losses</a:t>
+              <a:t> (SERBIA): Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -4329,10 +4346,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2004</c:v>
                 </c:pt>
@@ -4396,15 +4413,18 @@
                 <c:pt idx="20">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$22</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -4468,12 +4488,15 @@
                 <c:pt idx="20">
                   <c:v>35</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC59-4C44-9ED4-0702B875D697}"/>
+              <c16:uniqueId val="{00000000-D40D-46AA-AE79-363010DED0A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4503,10 +4526,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2004</c:v>
                 </c:pt>
@@ -4570,15 +4593,18 @@
                 <c:pt idx="20">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$22</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -4642,12 +4668,15 @@
                 <c:pt idx="20">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC59-4C44-9ED4-0702B875D697}"/>
+              <c16:uniqueId val="{00000001-D40D-46AA-AE79-363010DED0A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4661,11 +4690,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1171423439"/>
-        <c:axId val="1257649183"/>
+        <c:axId val="141226000"/>
+        <c:axId val="141231760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1171423439"/>
+        <c:axId val="141226000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4763,7 +4792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1257649183"/>
+        <c:crossAx val="141231760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4771,7 +4800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1257649183"/>
+        <c:axId val="141231760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4877,7 +4906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1171423439"/>
+        <c:crossAx val="141226000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4987,11 +5016,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Novak Djokovic</a:t>
+              <a:t>Novak Djokovic (SERBIA): Winning Percentile</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> (SERBIA): Winning Percentile Range</a:t>
+              <a:t> Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -5086,10 +5115,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$22</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2004</c:v>
                 </c:pt>
@@ -5153,15 +5182,18 @@
                 <c:pt idx="20">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$22</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.55555555555555558</c:v>
                 </c:pt>
@@ -5225,13 +5257,16 @@
                 <c:pt idx="20">
                   <c:v>0.77142857142857146</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0DB-4678-91A6-7EC1BB63AEC5}"/>
+              <c16:uniqueId val="{00000001-027A-40DE-9BED-21CA8A9BFACB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5245,11 +5280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1171421039"/>
-        <c:axId val="691529039"/>
+        <c:axId val="141231760"/>
+        <c:axId val="141218320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1171421039"/>
+        <c:axId val="141231760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5347,7 +5382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691529039"/>
+        <c:crossAx val="141218320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5355,7 +5390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="691529039"/>
+        <c:axId val="141218320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5461,7 +5496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1171421039"/>
+        <c:crossAx val="141231760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6623,10 +6658,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D45F5341-46F1-475A-9153-7176669D0116}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0DC545DF-8BD0-4D63-A139-2F92E55DDC98}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6635,10 +6670,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2CE251B0-8B2F-44F7-935E-957E23BDBAFE}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0A1F00AA-4A5A-447E-8D3E-44AE7C39DCB2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6650,13 +6685,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8580504" cy="5835063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8AB75F0-843D-9070-5368-BE2DAADDF3E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C9626D-F50C-FB21-024C-BBDC1C2491EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6683,13 +6718,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8580504" cy="5835063"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5CE59B-4B3D-7673-5D72-EF70D711CF4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C2B122-1EB4-7780-0C34-EBE0EDAA50A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7015,7 +7050,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7510,7 +7545,7 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8827,7 +8862,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9984,7 +10019,7 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11378,7 +11413,7 @@
   <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12573,7 +12608,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13262,7 +13297,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14312,7 +14347,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15398,7 +15433,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16055,7 +16090,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16916,28 +16951,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="43" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="42" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="41" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C50">
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -16952,7 +16987,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17731,34 +17766,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="35" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="34" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="33" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="32" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="31" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C47">
-    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -17773,7 +17808,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18545,7 +18580,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19533,49 +19568,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 D21">
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C46">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C52">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19589,8 +19624,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E51" activeCellId="11" sqref="E2:E6 E9 E12:E14 E17 E20:E21 E24:E27 E30:E33 E35 E38:E43 E45:E46 E49 E51:E55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20318,37 +20353,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C7">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C15">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C22 D20 F20:F22">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C42">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C55">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
     <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C55">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -20356,14 +20391,112 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C006A6-AAC7-466A-A9FC-41605BCB51DF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A23 F1:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20414,7 +20547,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F22" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F23" si="0">(D2-E2)/D2</f>
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -20844,57 +20977,78 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="5">
-        <f>SUM(B2:B22)</f>
-        <v>331</v>
-      </c>
-      <c r="C23" s="5">
-        <f>SUM(C2:C22)</f>
-        <v>99</v>
-      </c>
-      <c r="D23" s="5">
-        <f>SUM(D2:D22)</f>
-        <v>1134</v>
-      </c>
-      <c r="E23" s="5">
-        <f>SUM(E2:E22)</f>
-        <v>219</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.80687830687830686</v>
+      <c r="A23">
+        <v>2025</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="5">
+        <f>SUM(B2:B23)</f>
+        <v>332</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUM(C2:C23)</f>
+        <v>99</v>
+      </c>
+      <c r="D24" s="5">
+        <f>SUM(D2:D23)</f>
+        <v>1136</v>
+      </c>
+      <c r="E24" s="5">
+        <f>SUM(E2:E23)</f>
+        <v>220</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
+        <v>0.80633802816901412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="5">
-        <f>AVERAGE(B2:B22)</f>
-        <v>15.761904761904763</v>
-      </c>
-      <c r="C24" s="5">
-        <f>AVERAGE(C2:C22)</f>
-        <v>4.7142857142857144</v>
-      </c>
-      <c r="D24" s="5">
-        <f>AVERAGE(D2:D22)</f>
-        <v>54</v>
-      </c>
-      <c r="E24" s="5">
-        <f>AVERAGE(E2:E22)</f>
-        <v>10.428571428571429</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="B25" s="5">
+        <f>AVERAGE(B2:B23)</f>
+        <v>15.090909090909092</v>
+      </c>
+      <c r="C25" s="5">
+        <f>AVERAGE(C2:C23)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D25" s="5">
+        <f>AVERAGE(D2:D23)</f>
+        <v>51.636363636363633</v>
+      </c>
+      <c r="E25" s="5">
+        <f>AVERAGE(E2:E23)</f>
+        <v>10</v>
+      </c>
+      <c r="F25" s="6">
         <f t="shared" si="1"/>
-        <v>0.80687830687830686</v>
+        <v>0.80633802816901412</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F22">
+  <conditionalFormatting sqref="F2:F23">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -20916,7 +21070,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21857,7 +22011,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23134,31 +23288,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="52" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="50" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="49" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="47" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -23173,7 +23327,7 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24337,7 +24491,7 @@
   <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25876,7 +26030,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27143,7 +27297,7 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28391,7 +28545,7 @@
   <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9FFA23D-E483-4503-94ED-125EB3F265CD}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5ECA22-EE23-44D1-87FB-FEEB42A7DDBC}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="13" activeTab="24" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15285" firstSheet="13" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -35,9 +35,7 @@
     <sheet name="2023" sheetId="36" r:id="rId20"/>
     <sheet name="2024" sheetId="40" r:id="rId21"/>
     <sheet name="2025" sheetId="43" r:id="rId22"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId23"/>
-    <sheet name="Wins-Losses" sheetId="44" r:id="rId24"/>
-    <sheet name="Winning Percentile Range" sheetId="45" r:id="rId25"/>
+    <sheet name="Stats" sheetId="1" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6216" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6248" uniqueCount="1181">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3572,13 +3570,34 @@
     <t>6-7(4) 6-1 6-4</t>
   </si>
   <si>
-    <t>Jakub Mensik (CZECH REPUBLIC)</t>
-  </si>
-  <si>
     <t>Rinky Hijikata (AUSTRALIA)</t>
   </si>
   <si>
     <t>Reilly Opelka (USA)</t>
+  </si>
+  <si>
+    <t>Jakub Menšík (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Nishesh Basavareddy (USA)</t>
+  </si>
+  <si>
+    <t>Jaime Faria (PORTUGAL)</t>
+  </si>
+  <si>
+    <t>Jiří Lehečka (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-4 6-2</t>
+  </si>
+  <si>
+    <t>6-1 6-7(4) 6-3 6-2</t>
+  </si>
+  <si>
+    <t>6-3 6-4 7-6(4)</t>
+  </si>
+  <si>
+    <t>7-6(5) RETIRED</t>
   </si>
 </sst>
 </file>
@@ -3685,7 +3704,37 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4325,7 +4374,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4346,7 +4395,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$23</c:f>
+              <c:f>Stats!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4421,7 +4470,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$23</c:f>
+              <c:f>Stats!$D$2:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4489,14 +4538,14 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D40D-46AA-AE79-363010DED0A0}"/>
+              <c16:uniqueId val="{00000000-E71B-46D5-A577-146FEAF684B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4505,7 +4554,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4526,7 +4575,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$23</c:f>
+              <c:f>Stats!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4601,7 +4650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$23</c:f>
+              <c:f>Stats!$E$2:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4669,14 +4718,14 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D40D-46AA-AE79-363010DED0A0}"/>
+              <c16:uniqueId val="{00000001-E71B-46D5-A577-146FEAF684B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4978,6 +5027,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5066,7 +5120,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5115,7 +5169,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$23</c:f>
+              <c:f>Stats!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5190,7 +5244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$23</c:f>
+              <c:f>Stats!$F$2:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5258,7 +5312,7 @@
                   <c:v>0.77142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5266,7 +5320,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-027A-40DE-9BED-21CA8A9BFACB}"/>
+              <c16:uniqueId val="{00000001-74DA-4810-8739-238101CB47DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5568,6 +5622,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6657,47 +6716,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0DC545DF-8BD0-4D63-A139-2F92E55DDC98}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0A1F00AA-4A5A-447E-8D3E-44AE7C39DCB2}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8580504" cy="5835063"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C9626D-F50C-FB21-024C-BBDC1C2491EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F976173-C9A0-F3CA-41B3-68756A83FCF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6710,27 +6753,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8580504" cy="5835063"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C2B122-1EB4-7780-0C34-EBE0EDAA50A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5D1EA5-1521-3BFF-1EA3-40255731C51C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6738,13 +6784,17 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16089,8 +16139,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16951,28 +17001,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="44" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="43" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="42" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C50">
-    <cfRule type="duplicateValues" dxfId="39" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="38" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -17766,34 +17816,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="35" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="34" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="33" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="32" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="30" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C47">
-    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18580,7 +18630,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="C48" sqref="C48:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19568,49 +19618,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="26" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 D21">
-    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C46">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C52">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19625,7 +19675,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20314,7 +20364,7 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>20</v>
@@ -20353,37 +20403,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C7">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C15">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C22 D20 F20:F22">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C42">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C55">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -20395,10 +20445,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E6" activeCellId="1" sqref="E2:E3 E6:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20406,9 +20456,9 @@
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -20442,7 +20492,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -20470,7 +20520,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>19</v>
@@ -20479,9 +20529,128 @@
         <v>996</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>883</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>769</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>971</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>597</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:D13 F13">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -20495,8 +20664,8 @@
   </sheetPr>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A23 F1:F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20981,20 +21150,20 @@
         <v>2025</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -21003,7 +21172,7 @@
       </c>
       <c r="B24" s="5">
         <f>SUM(B2:B23)</f>
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C24" s="5">
         <f>SUM(C2:C23)</f>
@@ -21011,15 +21180,15 @@
       </c>
       <c r="D24" s="5">
         <f>SUM(D2:D23)</f>
-        <v>1136</v>
+        <v>1141</v>
       </c>
       <c r="E24" s="5">
         <f>SUM(E2:E23)</f>
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.80633802816901412</v>
+        <v>0.80543382997370727</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -21028,7 +21197,7 @@
       </c>
       <c r="B25" s="5">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.090909090909092</v>
+        <v>15.181818181818182</v>
       </c>
       <c r="C25" s="5">
         <f>AVERAGE(C2:C23)</f>
@@ -21036,15 +21205,15 @@
       </c>
       <c r="D25" s="5">
         <f>AVERAGE(D2:D23)</f>
-        <v>51.636363636363633</v>
+        <v>51.863636363636367</v>
       </c>
       <c r="E25" s="5">
         <f>AVERAGE(E2:E23)</f>
-        <v>10</v>
+        <v>10.090909090909092</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="1"/>
-        <v>0.80633802816901412</v>
+        <v>0.80543382997370727</v>
       </c>
     </row>
   </sheetData>
@@ -21059,6 +21228,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23288,31 +23458,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="53" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="51" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="49" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="46" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA5ECA22-EE23-44D1-87FB-FEEB42A7DDBC}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F72E853-628A-49C7-A4C1-47AB7D7022F8}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="28800" windowHeight="15285" firstSheet="13" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="19860" yWindow="11115" windowWidth="19230" windowHeight="10455" firstSheet="12" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6248" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6286" uniqueCount="1186">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3598,6 +3598,21 @@
   </si>
   <si>
     <t>7-6(5) RETIRED</t>
+  </si>
+  <si>
+    <t>6-2 3-6 6-1</t>
+  </si>
+  <si>
+    <t>Camilo Ugo Carabelli</t>
+  </si>
+  <si>
+    <t>6-0 7-6(1)</t>
+  </si>
+  <si>
+    <t>6-1 7-6(1)</t>
+  </si>
+  <si>
+    <t>7-6(4) 7-6(4)</t>
   </si>
 </sst>
 </file>
@@ -3704,7 +3719,27 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4538,7 +4573,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4718,7 +4753,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5312,7 +5347,7 @@
                   <c:v>0.77142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11462,8 +11497,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17001,28 +17036,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="47" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="46" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="45" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="44" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C50">
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -17816,34 +17851,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="39" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="38" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="37" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="36" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="35" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="34" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="33" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C47">
-    <cfRule type="duplicateValues" dxfId="31" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19618,49 +19653,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="28" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="26" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 D21">
-    <cfRule type="duplicateValues" dxfId="25" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="24" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C46">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C52">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19674,8 +19709,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20403,37 +20438,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C7">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C15">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C22 D20 F20:F22">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C42">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C55">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -20445,18 +20480,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" activeCellId="1" sqref="E2:E3 E6:E10"/>
+      <selection activeCell="E17" activeCellId="2" sqref="E2:E3 E6:E10 E17:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -20639,18 +20674,154 @@
         <v>597</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>672</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:D13 F13">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D13 F13">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -20665,7 +20836,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21150,20 +21321,20 @@
         <v>2025</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -21172,7 +21343,7 @@
       </c>
       <c r="B24" s="5">
         <f>SUM(B2:B23)</f>
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C24" s="5">
         <f>SUM(C2:C23)</f>
@@ -21180,15 +21351,15 @@
       </c>
       <c r="D24" s="5">
         <f>SUM(D2:D23)</f>
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="E24" s="5">
         <f>SUM(E2:E23)</f>
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.80543382997370727</v>
+        <v>0.80366492146596857</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -21197,7 +21368,7 @@
       </c>
       <c r="B25" s="5">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.181818181818182</v>
+        <v>15.318181818181818</v>
       </c>
       <c r="C25" s="5">
         <f>AVERAGE(C2:C23)</f>
@@ -21205,15 +21376,15 @@
       </c>
       <c r="D25" s="5">
         <f>AVERAGE(D2:D23)</f>
-        <v>51.863636363636367</v>
+        <v>52.090909090909093</v>
       </c>
       <c r="E25" s="5">
         <f>AVERAGE(E2:E23)</f>
-        <v>10.090909090909092</v>
+        <v>10.227272727272727</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="1"/>
-        <v>0.80543382997370727</v>
+        <v>0.80366492146596857</v>
       </c>
     </row>
   </sheetData>
@@ -23458,31 +23629,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="56" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="54" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="53" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="52" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="51" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F72E853-628A-49C7-A4C1-47AB7D7022F8}"/>
+  <xr:revisionPtr revIDLastSave="378" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B347CEE0-AA63-4093-A6BA-035FF644006F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19860" yWindow="11115" windowWidth="19230" windowHeight="10455" firstSheet="12" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="12" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2004" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6286" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6362" uniqueCount="1197">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3613,6 +3613,39 @@
   </si>
   <si>
     <t>7-6(4) 7-6(4)</t>
+  </si>
+  <si>
+    <t>Matteo Arnaldi (ITALY)</t>
+  </si>
+  <si>
+    <t>6-4 6-7(6) 6-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-7 7-6(2) 7-6(2) </t>
+  </si>
+  <si>
+    <t>Mackie McDonald (USA)</t>
+  </si>
+  <si>
+    <t>6-4 7-5 7-6(3)</t>
+  </si>
+  <si>
+    <t>Filip Misolic (AUSTRIA)</t>
+  </si>
+  <si>
+    <t>6-1 6-7(7) 6-2 6-2</t>
+  </si>
+  <si>
+    <t>6-3 6-2 6-0</t>
+  </si>
+  <si>
+    <t>6-3 6-0 6-4</t>
+  </si>
+  <si>
+    <t>1-6 6-4 6-4 6-4</t>
+  </si>
+  <si>
+    <t>6-7(6) 6-2 7-5 6-4</t>
   </si>
 </sst>
 </file>
@@ -3719,7 +3752,27 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="61">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4573,7 +4626,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4753,7 +4806,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5347,7 +5400,7 @@
                   <c:v>0.77142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>0.65384615384615385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6828,10 +6881,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -16174,8 +16223,8 @@
   </sheetPr>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17036,28 +17085,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="49" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="48" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="47" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="46" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C50">
-    <cfRule type="duplicateValues" dxfId="44" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -17071,8 +17120,8 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17851,34 +17900,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="41" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="40" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="39" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="37" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="36" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="35" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C47">
-    <cfRule type="duplicateValues" dxfId="33" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -18664,8 +18713,8 @@
   </sheetPr>
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:F52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19653,49 +19702,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="31" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="28" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 D21">
-    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="26" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C46">
-    <cfRule type="duplicateValues" dxfId="21" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C52">
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19709,8 +19758,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20438,37 +20487,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C7">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C15">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C22 D20 F20:F22">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C42">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C55">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -20480,10 +20529,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" activeCellId="2" sqref="E2:E3 E6:E10 E17:E21"/>
+      <selection activeCell="E45" activeCellId="8" sqref="E4 E11 E13 E15 E22 E24 E26 E38 E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20804,23 +20853,291 @@
         <v>41</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>924</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>950</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>968</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>883</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" t="s">
+        <v>434</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13 F13">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C42">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21321,20 +21638,20 @@
         <v>2025</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.65384615384615385</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -21343,23 +21660,23 @@
       </c>
       <c r="B24" s="5">
         <f>SUM(B2:B23)</f>
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C24" s="5">
         <f>SUM(C2:C23)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D24" s="5">
         <f>SUM(D2:D23)</f>
-        <v>1146</v>
+        <v>1160</v>
       </c>
       <c r="E24" s="5">
         <f>SUM(E2:E23)</f>
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.80366492146596857</v>
+        <v>0.80344827586206902</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -21368,23 +21685,23 @@
       </c>
       <c r="B25" s="5">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.318181818181818</v>
+        <v>15.5</v>
       </c>
       <c r="C25" s="5">
         <f>AVERAGE(C2:C23)</f>
-        <v>4.5</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="D25" s="5">
         <f>AVERAGE(D2:D23)</f>
-        <v>52.090909090909093</v>
+        <v>52.727272727272727</v>
       </c>
       <c r="E25" s="5">
         <f>AVERAGE(E2:E23)</f>
-        <v>10.227272727272727</v>
+        <v>10.363636363636363</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="1"/>
-        <v>0.80366492146596857</v>
+        <v>0.80344827586206891</v>
       </c>
     </row>
   </sheetData>
@@ -23629,31 +23946,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="58" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="56" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="55" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="54" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="53" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="378" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B347CEE0-AA63-4093-A6BA-035FF644006F}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="8_{21005619-23F8-4F2C-8607-0BDF20BFBECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D0EAB25-0A54-419A-AE91-4213FE4EBB64}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="12" activeTab="22" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6362" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6388" uniqueCount="1204">
   <si>
     <t>Semifinal</t>
   </si>
@@ -3646,6 +3646,27 @@
   </si>
   <si>
     <t>6-7(6) 6-2 7-5 6-4</t>
+  </si>
+  <si>
+    <t>Learner Tien (USA)</t>
+  </si>
+  <si>
+    <t>6-1 7-6(3) 6-2</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-3 6-3 6-1</t>
+  </si>
+  <si>
+    <t>6-4 6-7(4) 6-2 6-3</t>
+  </si>
+  <si>
+    <t>6-3 7-5 3-6 6-4</t>
+  </si>
+  <si>
+    <t>6-4 7-6(4) 6-2</t>
+  </si>
+  <si>
+    <t>Zachary Svajda (USA)</t>
   </si>
 </sst>
 </file>
@@ -3752,7 +3773,17 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4626,7 +4657,7 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4806,7 +4837,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5400,7 +5431,7 @@
                   <c:v>0.77142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.65384615384615385</c:v>
+                  <c:v>0.67741935483870963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17085,28 +17116,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C8">
-    <cfRule type="duplicateValues" dxfId="51" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C21">
-    <cfRule type="duplicateValues" dxfId="50" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C26">
-    <cfRule type="duplicateValues" dxfId="49" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="48" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C50">
-    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C56">
-    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -17900,34 +17931,34 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="duplicateValues" dxfId="43" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="42" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C9">
-    <cfRule type="duplicateValues" dxfId="41" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C15">
-    <cfRule type="duplicateValues" dxfId="40" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="duplicateValues" dxfId="39" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="38" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C36">
-    <cfRule type="duplicateValues" dxfId="37" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C43">
-    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C47">
-    <cfRule type="duplicateValues" dxfId="35" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C53">
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19702,49 +19733,49 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="duplicateValues" dxfId="33" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C14">
-    <cfRule type="duplicateValues" dxfId="32" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17 D16 F16:F19 F21:F22 F24:F25">
-    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="duplicateValues" dxfId="30" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C22 D21">
-    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="28" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="duplicateValues" dxfId="27" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:C37">
-    <cfRule type="duplicateValues" dxfId="25" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C46">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C52">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C60">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C66">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -19758,8 +19789,8 @@
   </sheetPr>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20487,37 +20518,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C7">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C15">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C22 D20 F20:F22">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C35">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:C42">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C55">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -20529,10 +20560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E45" activeCellId="8" sqref="E4 E11 E13 E15 E22 E24 E26 E38 E45"/>
+      <selection activeCell="E52" activeCellId="9" sqref="E4 E11 E13 E15 E22 E24 E26 E38 E45 E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21115,29 +21146,122 @@
         <v>434</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>867</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>943</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1202</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="7" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
     <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
+  <conditionalFormatting sqref="C35">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C42">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13 F13">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="C49">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21638,20 +21762,20 @@
         <v>2025</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" si="0"/>
-        <v>0.65384615384615385</v>
+        <v>0.67741935483870963</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -21660,7 +21784,7 @@
       </c>
       <c r="B24" s="5">
         <f>SUM(B2:B23)</f>
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C24" s="5">
         <f>SUM(C2:C23)</f>
@@ -21668,15 +21792,15 @@
       </c>
       <c r="D24" s="5">
         <f>SUM(D2:D23)</f>
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="E24" s="5">
         <f>SUM(E2:E23)</f>
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" ref="F24:F25" si="1">(D24-E24)/D24</f>
-        <v>0.80344827586206902</v>
+        <v>0.80343347639484974</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -21685,7 +21809,7 @@
       </c>
       <c r="B25" s="5">
         <f>AVERAGE(B2:B23)</f>
-        <v>15.5</v>
+        <v>15.545454545454545</v>
       </c>
       <c r="C25" s="5">
         <f>AVERAGE(C2:C23)</f>
@@ -21693,15 +21817,15 @@
       </c>
       <c r="D25" s="5">
         <f>AVERAGE(D2:D23)</f>
-        <v>52.727272727272727</v>
+        <v>52.954545454545453</v>
       </c>
       <c r="E25" s="5">
         <f>AVERAGE(E2:E23)</f>
-        <v>10.363636363636363</v>
+        <v>10.409090909090908</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="1"/>
-        <v>0.80344827586206891</v>
+        <v>0.80343347639484985</v>
       </c>
     </row>
   </sheetData>
@@ -23946,31 +24070,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="duplicateValues" dxfId="60" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C41">
-    <cfRule type="duplicateValues" dxfId="59" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
-    <cfRule type="duplicateValues" dxfId="58" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:C54">
-    <cfRule type="duplicateValues" dxfId="57" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="duplicateValues" dxfId="56" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C72">
-    <cfRule type="duplicateValues" dxfId="55" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C82">
-    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87:C88">
-    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93:C94">
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>

--- a/Tennis/ATP Tour/Novak Djokovic.xlsx
+++ b/Tennis/ATP Tour/Novak Djokovic.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -6912,6 +6912,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -21255,14 +21259,14 @@
   <conditionalFormatting sqref="C42">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C13:D13 F13">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
